--- a/matrix/executed/windows/login/login_ui_design_execute.xlsx
+++ b/matrix/executed/windows/login/login_ui_design_execute.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09A6476-C9DA-40FF-9738-DF18A2A82AD6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89B531F-FB01-4553-9BDA-9997FB15F063}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -308,15 +308,139 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp38.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp39.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp41.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp42.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp43.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp44.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp45.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp46.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp47.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp48.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp49.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp50.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp51.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp52.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp53.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp54.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp55.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp56.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp57.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp58.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp59.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp60.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp61.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp62.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
@@ -347,7 +471,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -357,7 +481,7 @@
                   <a14:compatExt spid="_x0000_s1058"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F46C34CF-F682-4CB6-BDB5-8ACB9BE02961}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -414,7 +538,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -424,7 +548,7 @@
                   <a14:compatExt spid="_x0000_s1059"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53562EE7-8DE8-46E1-AE3B-2AB7740BA73A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -481,7 +605,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -491,7 +615,7 @@
                   <a14:compatExt spid="_x0000_s1060"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{678B42DA-3FF3-4A2A-AD93-FAC126704AB0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -548,7 +672,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -558,7 +682,7 @@
                   <a14:compatExt spid="_x0000_s1061"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C901E26-841A-4E42-BD2A-AC6EB5E0191F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -615,7 +739,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -625,7 +749,7 @@
                   <a14:compatExt spid="_x0000_s1062"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30198843-1F55-4F72-8D33-D2B215988039}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -682,7 +806,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -692,7 +816,7 @@
                   <a14:compatExt spid="_x0000_s1063"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39E57E39-D4A4-4C43-B7E3-D72C29EC3C9D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -749,7 +873,7 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -759,7 +883,7 @@
                   <a14:compatExt spid="_x0000_s1064"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF2D3FE2-6364-484A-8348-5CE21802810D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -816,7 +940,7 @@
           <xdr:col>9</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -826,7 +950,7 @@
                   <a14:compatExt spid="_x0000_s1065"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0988BFA4-AE38-4376-8652-0BD3F198430E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -883,7 +1007,7 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -893,7 +1017,7 @@
                   <a14:compatExt spid="_x0000_s1066"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E31CCDCD-B174-4177-988D-1DA2E5174887}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -950,7 +1074,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -960,7 +1084,7 @@
                   <a14:compatExt spid="_x0000_s1067"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A44A07B9-6B7C-4E88-916D-9D40E0E1B697}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1017,7 +1141,7 @@
           <xdr:col>12</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1027,7 +1151,7 @@
                   <a14:compatExt spid="_x0000_s1068"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3587BF23-0885-4C21-A4C9-CCDB4166AC3E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1084,7 +1208,7 @@
           <xdr:col>13</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1094,7 +1218,7 @@
                   <a14:compatExt spid="_x0000_s1069"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{303825D3-13DB-4449-9A56-23FDC1AB4F49}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1151,7 +1275,7 @@
           <xdr:col>12</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1161,7 +1285,7 @@
                   <a14:compatExt spid="_x0000_s1070"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1C48878-5F82-4A7C-9BC6-EFB79ECD4CDB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1218,7 +1342,7 @@
           <xdr:col>13</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1228,7 +1352,7 @@
                   <a14:compatExt spid="_x0000_s1071"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAD54A9D-9F10-4E9B-9BE2-4EAF31F08455}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1285,7 +1409,7 @@
           <xdr:col>14</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1295,7 +1419,7 @@
                   <a14:compatExt spid="_x0000_s1072"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBFBB060-30E4-4318-91A7-FF66E60311A7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1352,7 +1476,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1362,7 +1486,7 @@
                   <a14:compatExt spid="_x0000_s1073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B0CF1BE-AFF9-42C7-841B-E08C3F7A5873}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1419,7 +1543,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1429,7 +1553,7 @@
                   <a14:compatExt spid="_x0000_s1074"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D97F3099-260D-406E-9085-0CBF10AC3FF2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1486,7 +1610,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1496,7 +1620,7 @@
                   <a14:compatExt spid="_x0000_s1075"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6D5B711-CC23-4B96-B8F3-9715714C27C6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1553,7 +1677,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1563,7 +1687,7 @@
                   <a14:compatExt spid="_x0000_s1076"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D10BD93A-0B74-44BA-A2E6-F393BAD19D32}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1620,7 +1744,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1630,7 +1754,7 @@
                   <a14:compatExt spid="_x0000_s1077"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2F08DAE-BC3C-4B4F-A426-DBFDA160DFA9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1687,7 +1811,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1697,7 +1821,7 @@
                   <a14:compatExt spid="_x0000_s1078"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5027D1FF-45FA-48D9-9E0B-76721ACAE481}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1754,7 +1878,7 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1764,7 +1888,7 @@
                   <a14:compatExt spid="_x0000_s1079"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BB77212-8765-404E-A2A9-1B1F7F075797}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1821,7 +1945,7 @@
           <xdr:col>9</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1831,7 +1955,7 @@
                   <a14:compatExt spid="_x0000_s1080"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6C54F5A-32AC-43B3-A9FE-61A641B2E958}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1888,7 +2012,7 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1898,7 +2022,7 @@
                   <a14:compatExt spid="_x0000_s1081"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1507924-C2BA-46F1-A15B-245903DF177F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1955,7 +2079,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1965,7 +2089,7 @@
                   <a14:compatExt spid="_x0000_s1082"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52DCFAAD-62E4-42F6-8A26-B1BF13ADE422}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2022,7 +2146,7 @@
           <xdr:col>12</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2032,7 +2156,7 @@
                   <a14:compatExt spid="_x0000_s1083"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A2301DD-D375-43CE-AF0B-450AD568CC8B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2089,7 +2213,7 @@
           <xdr:col>13</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2099,7 +2223,7 @@
                   <a14:compatExt spid="_x0000_s1084"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E6771C0-5BC4-4EAA-974F-260819470632}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2156,7 +2280,7 @@
           <xdr:col>12</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2166,7 +2290,7 @@
                   <a14:compatExt spid="_x0000_s1085"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60AE658B-5284-4177-8005-BA978772AF94}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2223,7 +2347,7 @@
           <xdr:col>13</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2233,7 +2357,7 @@
                   <a14:compatExt spid="_x0000_s1086"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50BCC0F5-1F95-49DF-BDBD-C1F7F262181F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2290,7 +2414,7 @@
           <xdr:col>14</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2300,7 +2424,7 @@
                   <a14:compatExt spid="_x0000_s1087"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE47758-351E-4D63-9C8A-F5399FA086F6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2357,7 +2481,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2367,7 +2491,7 @@
                   <a14:compatExt spid="_x0000_s1088"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E61829F-5D19-4AA0-AC5E-F6946E6BD06E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2429,7 +2553,7 @@
         <xdr:cNvPr id="69" name="Picture 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{549F0DFC-3EE7-41D1-AF3F-D4036405808A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2472,6 +2596,1984 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1089" name="Check Box 65" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1089"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15C48177-077B-4243-A497-0B4028468399}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1090" name="Check Box 66" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1090"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A2584A7-50AC-4599-8F3E-5B2390DCAB36}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1091" name="Check Box 67" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1091"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132A69B4-90D5-43F2-A803-79B0A52DD45C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1092" name="Check Box 68" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1092"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88DB74FA-6138-49B6-BC8D-2BE0F910BD5D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1093" name="Check Box 69" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1093"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBDA2026-9E85-4344-A810-617CA380C71E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1094" name="Check Box 70" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1094"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63F0E277-95C1-446D-804C-8DE1D0152EBA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1095" name="Check Box 71" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1095"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C0387B8-36C4-4794-AB09-B74224DBCC55}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1096" name="Check Box 72" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1096"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7D46FBF-600E-4CA9-8599-58987911E855}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1097" name="Check Box 73" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1097"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06832B15-E289-4638-83C0-D70C02D270A4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1098" name="Check Box 74" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1098"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D98C87F6-E763-42B5-8F7E-6C56FF8A0661}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1099" name="Check Box 75" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1099"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D598784-56AE-471D-A44C-17CBA379A7FE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1100" name="Check Box 76" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1100"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12C1A898-D30D-4032-B966-D5DD5FC9FCD5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1101" name="Check Box 77" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1101"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F241E0F6-356C-4700-815B-3256014494FC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1102" name="Check Box 78" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1102"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8650758-95D7-454E-9266-A73E11F11657}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1103" name="Check Box 79" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1103"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF7FD7EA-AF34-411D-BE00-5CE4E842618A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1104" name="Check Box 80" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1104"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D328C8CE-AB69-481E-9419-2E6400915237}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1105" name="Check Box 81" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1105"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB722489-59FD-4E64-969D-40D94C1086B7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1106" name="Check Box 82" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1106"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14659737-60B0-4BC5-B969-1F64112CA135}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1107" name="Check Box 83" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1107"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BAA50D3-A38B-41FC-BB53-0153DDD149E6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1108" name="Check Box 84" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1108"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27BE52AF-F1ED-44AC-A8B4-F5A46FE079E6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1109" name="Check Box 85" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1109"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48E2A02B-5438-4811-95AA-07F245FF52B3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1110" name="Check Box 86" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1110"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{554465A2-FC9F-4288-89C4-71551E702D29}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1111" name="Check Box 87" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1111"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DFE6665-3DC9-4632-83F8-19138C9619C0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1112" name="Check Box 88" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1112"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A4E7B55-1114-46B0-8EB4-5B0D6DCE4CEE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1113" name="Check Box 89" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1113"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2919117-E1BB-4F23-89BB-A96281DA8649}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1114" name="Check Box 90" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1114"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84F78C0F-74DB-4FB6-964A-A2D6E6C5DDBC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1115" name="Check Box 91" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1115"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BFB5A75-E93C-4265-810A-DB45A34386E1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1116" name="Check Box 92" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1116"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA5C2084-1804-47B6-A6D0-B504CDF1CC57}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1117" name="Check Box 93" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1117"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E2DEDFF-997A-4691-B928-A61D508A8EA7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1118" name="Check Box 94" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1118"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67C0858A-72BF-4751-86F2-5584CE229A84}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1119" name="Check Box 95" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1119"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2671ACD9-78C6-4546-8E05-2A69A7F42A93}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619125" cy="228600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Picture 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D207173-73E3-46DC-AC09-733490A7B91C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2505075" y="190500"/>
+          <a:ext cx="619125" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2738,10 +4840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O6"/>
+  <dimension ref="B1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2875,6 +4977,137 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
+    </row>
+    <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
+        <v>45313</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3565,6 +5798,688 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1089" r:id="rId34" name="Check Box 65">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1090" r:id="rId35" name="Check Box 66">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1091" r:id="rId36" name="Check Box 67">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1092" r:id="rId37" name="Check Box 68">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1093" r:id="rId38" name="Check Box 69">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1094" r:id="rId39" name="Check Box 70">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1095" r:id="rId40" name="Check Box 71">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1096" r:id="rId41" name="Check Box 72">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1097" r:id="rId42" name="Check Box 73">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1098" r:id="rId43" name="Check Box 74">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1099" r:id="rId44" name="Check Box 75">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1100" r:id="rId45" name="Check Box 76">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1101" r:id="rId46" name="Check Box 77">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1102" r:id="rId47" name="Check Box 78">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1103" r:id="rId48" name="Check Box 79">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1104" r:id="rId49" name="Check Box 80">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1105" r:id="rId50" name="Check Box 81">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1106" r:id="rId51" name="Check Box 82">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1107" r:id="rId52" name="Check Box 83">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1108" r:id="rId53" name="Check Box 84">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1109" r:id="rId54" name="Check Box 85">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1110" r:id="rId55" name="Check Box 86">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1111" r:id="rId56" name="Check Box 87">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1112" r:id="rId57" name="Check Box 88">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1113" r:id="rId58" name="Check Box 89">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1114" r:id="rId59" name="Check Box 90">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1115" r:id="rId60" name="Check Box 91">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1116" r:id="rId61" name="Check Box 92">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1117" r:id="rId62" name="Check Box 93">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1118" r:id="rId63" name="Check Box 94">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1119" r:id="rId64" name="Check Box 95">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
